--- a/inside_web/web design/12コウヨウウェブデザイン技能検定Q.xlsx
+++ b/inside_web/web design/12コウヨウウェブデザイン技能検定Q.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\github\openforward\inside_web\web design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F8B078-D178-4A1E-BE42-AF284FAC76F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844BCBEF-BE4D-48EC-B617-8E527E68D236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="1" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="1章1_10" sheetId="1" r:id="rId1"/>
@@ -8783,7 +8783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8943,15 +8943,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -8981,6 +8972,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10100,13 +10103,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="61">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
@@ -10190,7 +10193,7 @@
       <c r="F13" t="s">
         <v>847</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>848</v>
       </c>
     </row>
@@ -10202,7 +10205,7 @@
         <f t="shared" si="0"/>
         <v>おこなう</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
@@ -10290,7 +10293,7 @@
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="53" t="s">
         <v>850</v>
       </c>
     </row>
@@ -10329,7 +10332,7 @@
         <f t="shared" si="1"/>
         <v>ばあい</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="56" t="s">
         <v>851</v>
       </c>
     </row>
@@ -10391,13 +10394,13 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="61">
+      <c r="B37" s="58">
         <v>2</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38">
@@ -10494,16 +10497,16 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="60">
+      <c r="B51" s="57">
         <v>4</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="11"/>
@@ -10612,15 +10615,15 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="64">
+      <c r="B66" s="61">
         <v>4</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8"/>
@@ -10666,7 +10669,7 @@
       <c r="F71" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="59" t="s">
+      <c r="G71" s="56" t="s">
         <v>853</v>
       </c>
     </row>
@@ -10681,7 +10684,7 @@
       <c r="F72" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="59" t="s">
+      <c r="G72" s="56" t="s">
         <v>854</v>
       </c>
     </row>
@@ -10696,7 +10699,7 @@
       <c r="F73" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="62" t="s">
+      <c r="G73" s="59" t="s">
         <v>856</v>
       </c>
     </row>
@@ -10711,7 +10714,7 @@
       <c r="F74" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="57" t="s">
+      <c r="G74" s="54" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10760,14 +10763,14 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="60">
+      <c r="B82" s="57">
         <v>2</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="11">
@@ -11001,13 +11004,13 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B109" s="60">
+      <c r="B109" s="57">
         <v>1</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D109" s="61"/>
+      <c r="D109" s="58"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="11">
@@ -11162,13 +11165,13 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B131" s="60">
+      <c r="B131" s="57">
         <v>4</v>
       </c>
-      <c r="C131" s="63" t="s">
+      <c r="C131" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D131" s="61"/>
+      <c r="D131" s="58"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C132" s="3" t="s">
@@ -11344,13 +11347,13 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B157" s="60">
+      <c r="B157" s="57">
         <v>4</v>
       </c>
-      <c r="C157" s="63" t="s">
+      <c r="C157" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D157" s="61"/>
+      <c r="D157" s="58"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C158" s="6"/>
@@ -11490,7 +11493,7 @@
       <c r="D4" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="65" t="s">
         <v>723</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -11502,7 +11505,7 @@
       <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1" t="s">
         <v>725</v>
       </c>
@@ -12510,7 +12513,7 @@
       <c r="D4" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="65" t="s">
         <v>723</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -12522,7 +12525,7 @@
       <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1" t="s">
         <v>725</v>
       </c>
@@ -13493,7 +13496,7 @@
   </sheetPr>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -14532,7 +14535,9 @@
   </sheetPr>
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14587,12 +14592,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="9">
+      <c r="B6" s="61">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="66" t="s">
         <v>223</v>
       </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
@@ -14720,12 +14726,13 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="11">
+      <c r="B30" s="57">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="58" t="s">
         <v>236</v>
       </c>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
@@ -14878,12 +14885,13 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="9">
+      <c r="B49" s="61">
         <v>4</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="62" t="s">
         <v>253</v>
       </c>
+      <c r="D49" s="58"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
@@ -14986,12 +14994,13 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="9">
+      <c r="B63" s="61">
         <v>2</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="62" t="s">
         <v>261</v>
       </c>
+      <c r="D63" s="58"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="9">
@@ -15103,6 +15112,11 @@
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C78" s="12" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C79" s="58">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
@@ -15151,12 +15165,13 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="9">
+      <c r="B87" s="61">
         <v>2</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="62" t="s">
         <v>278</v>
       </c>
+      <c r="D87" s="58"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="9">
@@ -15847,7 +15862,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17315,10 +17331,10 @@
       <c r="B19" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="64" t="s">
         <v>832</v>
       </c>
     </row>
@@ -17326,15 +17342,15 @@
       <c r="B20" s="50" t="s">
         <v>837</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>838</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
@@ -17373,10 +17389,10 @@
       <c r="B25" s="49" t="s">
         <v>842</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="63" t="s">
         <v>831</v>
       </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="46"/>
     </row>
   </sheetData>

--- a/inside_web/web design/12コウヨウウェブデザイン技能検定Q.xlsx
+++ b/inside_web/web design/12コウヨウウェブデザイン技能検定Q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\github\openforward\inside_web\web design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\openforward\inside_web\web design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844BCBEF-BE4D-48EC-B617-8E527E68D236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731FDAF-979E-42E6-A101-F591EED87EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="6" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="1章1_10" sheetId="1" r:id="rId1"/>
@@ -8973,6 +8973,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8981,9 +8984,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11493,7 +11493,7 @@
       <c r="D4" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>723</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -11505,7 +11505,7 @@
       <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="1" t="s">
         <v>725</v>
       </c>
@@ -12513,7 +12513,7 @@
       <c r="D4" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>723</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -12525,7 +12525,7 @@
       <c r="D5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="1" t="s">
         <v>725</v>
       </c>
@@ -14535,7 +14535,7 @@
   </sheetPr>
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -14595,7 +14595,7 @@
       <c r="B6" s="61">
         <v>3</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="58"/>
@@ -15874,7 +15874,7 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C131" sqref="C131:C136"/>
     </sheetView>
   </sheetViews>
@@ -17139,7 +17139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0079C2A-D213-498B-8A1E-64CEC8AD6E29}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -17331,10 +17331,10 @@
       <c r="B19" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>827</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>832</v>
       </c>
     </row>
@@ -17342,15 +17342,15 @@
       <c r="B20" s="50" t="s">
         <v>837</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>838</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
@@ -17389,10 +17389,10 @@
       <c r="B25" s="49" t="s">
         <v>842</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>831</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="46"/>
     </row>
   </sheetData>
@@ -17417,8 +17417,8 @@
   </sheetPr>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18488,8 +18488,8 @@
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18523,7 +18523,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
@@ -19512,6 +19514,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
